--- a/mysite/apps/mpemail/config/keyword-title.xlsx
+++ b/mysite/apps/mpemail/config/keyword-title.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26124"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugenekim/Downloads/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djkim\Documents\work\FingerFree\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948A728A-1162-4D9B-82C9-1087F1840644}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{0108EB99-0ACD-41C2-916C-117029E192F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="89">
   <si>
     <t>품목</t>
   </si>
@@ -35,9 +33,6 @@
     <t>제품명</t>
   </si>
   <si>
-    <t>상품</t>
-  </si>
-  <si>
     <t>수량</t>
   </si>
   <si>
@@ -45,15 +40,6 @@
   </si>
   <si>
     <t>고객성명</t>
-  </si>
-  <si>
-    <t>받는사람</t>
-  </si>
-  <si>
-    <t>받는분</t>
-  </si>
-  <si>
-    <t>수신인</t>
   </si>
   <si>
     <r>
@@ -95,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전화번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -112,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>배송메시지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -153,31 +131,450 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보내는이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전화번호</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보내는이 핸드폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>보내는이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보내는 사람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보내는 분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보내는 분 전화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보내는 사람 전화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보내는 분 핸드폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보내는 사람 핸드폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수취인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수신인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일자</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수령인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수령자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>상품명</t>
-  </si>
-  <si>
-    <t>판매수량</t>
-  </si>
-  <si>
-    <t>*전체수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청 사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 요구 사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수취인 연락처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수취인 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고객</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성명</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>받는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사람</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>받는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수신인 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수취인 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보내는 이 전화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보내는 이 핸드폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보내는 이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수신인 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수신인 연락처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 분 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 분 연락처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>품목명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발신인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발신자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발신인 전화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발신자 전화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발신인 핸드폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발신자 핸드폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수령인 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수령인 연락처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수령자 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수령자 연락처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문자 전화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문자 핸드폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매자 전화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매자 핸드폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발주일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 분 핸드폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수신인 핸드폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수취인 핸드폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수령인 핸드폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수령자 핸드폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 분 휴대폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수신인 휴대폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수취인 휴대폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수령인 휴대폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수령자 휴대폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문자 메모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송 메모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연락처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송 문구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -218,24 +615,203 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -243,8 +819,181 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -252,37 +1001,526 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="95">
+    <cellStyle name="20% - 강조색1" xfId="17" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색2" xfId="20" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색3" xfId="23" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색4" xfId="26" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색5" xfId="29" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색6" xfId="32" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색1" xfId="18" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색2" xfId="21" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색3" xfId="24" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색4" xfId="27" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색5" xfId="30" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색6" xfId="33" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색1 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="60% - 강조색2 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="60% - 강조색3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="60% - 강조색4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="60% - 강조색5 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="60% - 강조색6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="강조색1" xfId="16" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="강조색2" xfId="19" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="강조색3" xfId="22" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="강조색4" xfId="25" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="강조색5" xfId="28" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="강조색6" xfId="31" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="경고문" xfId="12" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="계산" xfId="9" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="나쁨" xfId="6" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="메모" xfId="13" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="보통 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="설명 텍스트" xfId="14" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="셀 확인" xfId="11" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="쉼표 [0] 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="쉼표 [0] 3" xfId="42" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="연결된 셀" xfId="10" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="요약" xfId="15" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="입력" xfId="7" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="제목 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="제목 2" xfId="2" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="제목 3" xfId="3" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="제목 4" xfId="4" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="제목 5" xfId="34" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="좋음" xfId="5" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="출력" xfId="8" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 10" xfId="43" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="표준 15" xfId="49" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="표준 2" xfId="74" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="표준 2 10" xfId="77" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="표준 2 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="표준 2 2 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="표준 23" xfId="50" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="표준 24" xfId="51" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="표준 26" xfId="52" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="표준 29" xfId="53" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="표준 31" xfId="54" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="표준 32" xfId="55" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="표준 34" xfId="56" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="표준 37" xfId="57" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="표준 38" xfId="58" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="표준 39" xfId="59" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="표준 4" xfId="44" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="표준 41" xfId="60" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="표준 48" xfId="61" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="표준 49" xfId="62" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="표준 50" xfId="63" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="표준 51" xfId="64" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="표준 52" xfId="65" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="표준 53" xfId="66" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="표준 54" xfId="67" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="표준 56" xfId="68" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="표준 57" xfId="69" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="표준 60" xfId="70" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="표준 61" xfId="71" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="표준 64" xfId="72" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="표준 67" xfId="73" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="표준 7" xfId="48" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="표준 70" xfId="75" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="표준 71" xfId="76" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="표준 72" xfId="78" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="표준 74" xfId="79" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="표준 75" xfId="80" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="표준 76" xfId="81" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="표준 77" xfId="82" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="표준 78" xfId="83" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="표준 80" xfId="84" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="표준 81" xfId="85" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="표준 83" xfId="86" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="표준 85" xfId="87" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="표준 87" xfId="88" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="표준 88" xfId="89" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="표준 91" xfId="90" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="표준 92" xfId="91" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="표준 93" xfId="92" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="표준 94" xfId="93" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="표준 95" xfId="94" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -593,117 +1831,420 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D420D5-9E15-4ECA-A64F-E3328FE25A89}">
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="7" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="10" max="10" width="15.875" customWidth="1"/>
+    <col min="11" max="18" width="12.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="H1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D15" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D16" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/mysite/apps/mpemail/config/keyword-title.xlsx
+++ b/mysite/apps/mpemail/config/keyword-title.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djkim\Documents\work\FingerFree\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugenekim/outsource/mpemail/mysite/apps/mpemail/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948A728A-1162-4D9B-82C9-1087F1840644}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{0108EB99-0ACD-41C2-916C-117029E192F0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
   <si>
     <t>품목</t>
   </si>
@@ -555,11 +557,26 @@
     <t>배송 문구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>*전체수량</t>
+  </si>
+  <si>
+    <t>우편번호</t>
+  </si>
+  <si>
+    <t>주소(지번)</t>
+  </si>
+  <si>
+    <t>수령인연락처</t>
+  </si>
+  <si>
+    <t>사용자메모</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -567,14 +584,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -615,7 +632,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -623,7 +640,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -632,7 +649,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -641,7 +658,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -650,7 +667,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -658,7 +675,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -666,7 +683,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -674,7 +691,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -683,7 +700,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -692,7 +709,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -700,7 +717,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -709,7 +726,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -717,7 +734,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -726,7 +743,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -735,7 +752,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -743,7 +760,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -766,7 +783,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -774,7 +791,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -782,7 +799,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1426,101 +1443,101 @@
     </xf>
   </cellXfs>
   <cellStyles count="95">
-    <cellStyle name="20% - 강조색1" xfId="17" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색2" xfId="20" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색3" xfId="23" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색4" xfId="26" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색5" xfId="29" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색6" xfId="32" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색1" xfId="18" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색2" xfId="21" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색3" xfId="24" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색4" xfId="27" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색5" xfId="30" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색6" xfId="33" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색1 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="60% - 강조색2 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="60% - 강조색3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="60% - 강조색4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="60% - 강조색5 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="60% - 강조색6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="강조색1" xfId="16" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="강조색2" xfId="19" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="강조색3" xfId="22" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="강조색4" xfId="25" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="강조색5" xfId="28" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="강조색6" xfId="31" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="경고문" xfId="12" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="계산" xfId="9" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="나쁨" xfId="6" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="메모" xfId="13" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="보통 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="설명 텍스트" xfId="14" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="셀 확인" xfId="11" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="쉼표 [0] 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="쉼표 [0] 3" xfId="42" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="연결된 셀" xfId="10" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="요약" xfId="15" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="입력" xfId="7" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="제목 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="제목 2" xfId="2" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="제목 3" xfId="3" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="제목 4" xfId="4" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="제목 5" xfId="34" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="좋음" xfId="5" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="출력" xfId="8" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 10" xfId="43" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="표준 15" xfId="49" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="표준 2" xfId="74" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="표준 2 10" xfId="77" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="표준 2 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="표준 2 2 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="표준 23" xfId="50" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="표준 24" xfId="51" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="표준 26" xfId="52" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="표준 29" xfId="53" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="표준 31" xfId="54" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="표준 32" xfId="55" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="표준 34" xfId="56" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="표준 37" xfId="57" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="표준 38" xfId="58" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="표준 39" xfId="59" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="표준 4" xfId="44" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="표준 41" xfId="60" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="표준 48" xfId="61" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="표준 49" xfId="62" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="표준 50" xfId="63" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="표준 51" xfId="64" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="표준 52" xfId="65" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="표준 53" xfId="66" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="표준 54" xfId="67" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="표준 56" xfId="68" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="표준 57" xfId="69" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="표준 60" xfId="70" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="표준 61" xfId="71" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="표준 64" xfId="72" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="표준 67" xfId="73" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="표준 7" xfId="48" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="표준 70" xfId="75" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="표준 71" xfId="76" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="표준 72" xfId="78" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="표준 74" xfId="79" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="표준 75" xfId="80" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="표준 76" xfId="81" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="표준 77" xfId="82" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="표준 78" xfId="83" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="표준 80" xfId="84" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="표준 81" xfId="85" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="표준 83" xfId="86" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="표준 85" xfId="87" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="표준 87" xfId="88" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="표준 88" xfId="89" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="표준 91" xfId="90" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="표준 92" xfId="91" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="표준 93" xfId="92" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="표준 94" xfId="93" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="표준 95" xfId="94" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="20% - Accent1" xfId="17" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="20" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="23" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="26" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="29" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="32" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="21" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="24" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="27" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="30" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="33" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색1 2" xfId="36"/>
+    <cellStyle name="60% - 강조색2 2" xfId="37"/>
+    <cellStyle name="60% - 강조색3 2" xfId="38"/>
+    <cellStyle name="60% - 강조색4 2" xfId="39"/>
+    <cellStyle name="60% - 강조색5 2" xfId="40"/>
+    <cellStyle name="60% - 강조색6 2" xfId="41"/>
+    <cellStyle name="Accent1" xfId="16" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="19" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="22" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="25" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="28" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="31" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="6" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="9" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="11" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="14" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="5" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="3" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="4" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="7" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="10" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="13" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="8" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="15" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="12" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="보통 2" xfId="35"/>
+    <cellStyle name="쉼표 [0] 2" xfId="45"/>
+    <cellStyle name="쉼표 [0] 3" xfId="42"/>
+    <cellStyle name="제목 5" xfId="34"/>
+    <cellStyle name="표준 10" xfId="43"/>
+    <cellStyle name="표준 15" xfId="49"/>
+    <cellStyle name="표준 2" xfId="74"/>
+    <cellStyle name="표준 2 10" xfId="77"/>
+    <cellStyle name="표준 2 2" xfId="46"/>
+    <cellStyle name="표준 2 2 2" xfId="47"/>
+    <cellStyle name="표준 23" xfId="50"/>
+    <cellStyle name="표준 24" xfId="51"/>
+    <cellStyle name="표준 26" xfId="52"/>
+    <cellStyle name="표준 29" xfId="53"/>
+    <cellStyle name="표준 31" xfId="54"/>
+    <cellStyle name="표준 32" xfId="55"/>
+    <cellStyle name="표준 34" xfId="56"/>
+    <cellStyle name="표준 37" xfId="57"/>
+    <cellStyle name="표준 38" xfId="58"/>
+    <cellStyle name="표준 39" xfId="59"/>
+    <cellStyle name="표준 4" xfId="44"/>
+    <cellStyle name="표준 41" xfId="60"/>
+    <cellStyle name="표준 48" xfId="61"/>
+    <cellStyle name="표준 49" xfId="62"/>
+    <cellStyle name="표준 50" xfId="63"/>
+    <cellStyle name="표준 51" xfId="64"/>
+    <cellStyle name="표준 52" xfId="65"/>
+    <cellStyle name="표준 53" xfId="66"/>
+    <cellStyle name="표준 54" xfId="67"/>
+    <cellStyle name="표준 56" xfId="68"/>
+    <cellStyle name="표준 57" xfId="69"/>
+    <cellStyle name="표준 60" xfId="70"/>
+    <cellStyle name="표준 61" xfId="71"/>
+    <cellStyle name="표준 64" xfId="72"/>
+    <cellStyle name="표준 67" xfId="73"/>
+    <cellStyle name="표준 7" xfId="48"/>
+    <cellStyle name="표준 70" xfId="75"/>
+    <cellStyle name="표준 71" xfId="76"/>
+    <cellStyle name="표준 72" xfId="78"/>
+    <cellStyle name="표준 74" xfId="79"/>
+    <cellStyle name="표준 75" xfId="80"/>
+    <cellStyle name="표준 76" xfId="81"/>
+    <cellStyle name="표준 77" xfId="82"/>
+    <cellStyle name="표준 78" xfId="83"/>
+    <cellStyle name="표준 80" xfId="84"/>
+    <cellStyle name="표준 81" xfId="85"/>
+    <cellStyle name="표준 83" xfId="86"/>
+    <cellStyle name="표준 85" xfId="87"/>
+    <cellStyle name="표준 87" xfId="88"/>
+    <cellStyle name="표준 88" xfId="89"/>
+    <cellStyle name="표준 91" xfId="90"/>
+    <cellStyle name="표준 92" xfId="91"/>
+    <cellStyle name="표준 93" xfId="92"/>
+    <cellStyle name="표준 94" xfId="93"/>
+    <cellStyle name="표준 95" xfId="94"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1831,28 +1848,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D420D5-9E15-4ECA-A64F-E3328FE25A89}">
-  <dimension ref="A1:N21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="1" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
     <col min="7" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="15.375" customWidth="1"/>
-    <col min="10" max="10" width="15.875" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" customWidth="1"/>
     <col min="11" max="18" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
@@ -1890,7 +1905,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -1928,9 +1943,12 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>46</v>
@@ -1963,7 +1981,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -1999,7 +2017,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
@@ -2013,7 +2031,9 @@
       <c r="E5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="G5" s="2" t="s">
         <v>34</v>
       </c>
@@ -2033,7 +2053,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
@@ -2064,7 +2084,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -2093,7 +2113,7 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
@@ -2119,11 +2139,14 @@
       </c>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>79</v>
       </c>
@@ -2136,7 +2159,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
@@ -2146,13 +2169,18 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
@@ -2166,7 +2194,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2181,7 +2209,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2196,7 +2224,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2211,39 +2239,44 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D15" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D19" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D21" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/mysite/apps/mpemail/config/keyword-title.xlsx
+++ b/mysite/apps/mpemail/config/keyword-title.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djkim\Documents\work\FingerFree\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djkim\Documents\work\FingerFree\mpemail3\mysite\apps\mpemail\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516284A0-DC0E-43EA-8F71-D7CCC4EE7937}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70778F42-0F4C-4C83-8FB1-8E08F7979836}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{0108EB99-0ACD-41C2-916C-117029E192F0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="123">
   <si>
     <t>품목</t>
   </si>
@@ -465,6 +465,22 @@
   </si>
   <si>
     <t>주문자전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는분주소(전체/분할)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소(한줄로)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대전화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -20068,10 +20084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D420D5-9E15-4ECA-A64F-E3328FE25A89}">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20379,7 +20395,7 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>27</v>
@@ -20412,7 +20428,7 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>6</v>
@@ -20443,7 +20459,7 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>93</v>
@@ -20472,7 +20488,7 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>113</v>
@@ -20499,7 +20515,7 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>114</v>
@@ -20523,7 +20539,9 @@
         <v>107</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="D13" s="4" t="s">
         <v>115</v>
       </c>
@@ -20544,12 +20562,14 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="D14" s="4" t="s">
         <v>116</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -20565,12 +20585,14 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="C15" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="D15" s="4" t="s">
         <v>96</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -20588,7 +20610,9 @@
       <c r="D16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -20734,6 +20758,11 @@
         <v>29</v>
       </c>
     </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D28" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
